--- a/测试数据/一界面/解释成果表-1单-上段.xlsx
+++ b/测试数据/一界面/解释成果表-1单-上段.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25200" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="宁209H34-1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="111">
   <si>
     <t>第一界面水泥胶结质量单层评价表</t>
   </si>
@@ -353,9 +353,6 @@
   </si>
   <si>
     <t>1967.28-1970.62</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -365,14 +362,13 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -383,7 +379,6 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
@@ -393,7 +388,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -407,22 +448,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -437,14 +472,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -457,9 +485,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -473,47 +507,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -535,9 +531,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -552,7 +547,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,115 +607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,7 +625,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,37 +703,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,17 +756,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,8 +785,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,50 +832,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,139 +857,139 @@
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1336,10 +1331,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+      <selection activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -3690,29 +3685,6 @@
       </c>
       <c r="G104" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="105" ht="18.2" customHeight="1" spans="1:7">
-      <c r="A105" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
